--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H2">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I2">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J2">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>4.758000066960001</v>
+        <v>14.486517648252</v>
       </c>
       <c r="R2">
-        <v>19.03200026784</v>
+        <v>57.946070593008</v>
       </c>
       <c r="S2">
-        <v>0.01036801484357004</v>
+        <v>0.0281565770271854</v>
       </c>
       <c r="T2">
-        <v>0.005850222999300624</v>
+        <v>0.01781431966809233</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H3">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I3">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J3">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>18.491691610032</v>
+        <v>41.018042154258</v>
       </c>
       <c r="R3">
-        <v>110.950149660192</v>
+        <v>246.108252925548</v>
       </c>
       <c r="S3">
-        <v>0.04029468902845712</v>
+        <v>0.07972431273433481</v>
       </c>
       <c r="T3">
-        <v>0.03410482913951576</v>
+        <v>0.07566088685054775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H4">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I4">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J4">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>25.450712549808</v>
+        <v>41.91949216751399</v>
       </c>
       <c r="R4">
-        <v>152.704275298848</v>
+        <v>251.516953005084</v>
       </c>
       <c r="S4">
-        <v>0.05545888225773789</v>
+        <v>0.08147640715417369</v>
       </c>
       <c r="T4">
-        <v>0.04693957812487169</v>
+        <v>0.07732367970638149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H5">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I5">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J5">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>8.160513314592</v>
+        <v>22.369612380804</v>
       </c>
       <c r="R5">
-        <v>32.642053258368</v>
+        <v>89.47844952321601</v>
       </c>
       <c r="S5">
-        <v>0.01778232912697269</v>
+        <v>0.04347847628821881</v>
       </c>
       <c r="T5">
-        <v>0.01003380033780198</v>
+        <v>0.02750829671277437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H6">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I6">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J6">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>3.722117633088</v>
+        <v>22.155036312006</v>
       </c>
       <c r="R6">
-        <v>22.332705798528</v>
+        <v>132.930217872036</v>
       </c>
       <c r="S6">
-        <v>0.008110754587279117</v>
+        <v>0.04306141763023067</v>
       </c>
       <c r="T6">
-        <v>0.006864822785860066</v>
+        <v>0.04086664325099809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.317424</v>
+        <v>0.704106</v>
       </c>
       <c r="H7">
-        <v>0.6348480000000001</v>
+        <v>1.408212</v>
       </c>
       <c r="I7">
-        <v>0.1868970758177159</v>
+        <v>0.3783320718192561</v>
       </c>
       <c r="J7">
-        <v>0.1502449105071424</v>
+        <v>0.336387758475552</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>25.18616101902401</v>
+        <v>52.70259626213399</v>
       </c>
       <c r="R7">
-        <v>151.116966114144</v>
+        <v>316.215577572804</v>
       </c>
       <c r="S7">
-        <v>0.05488240597369905</v>
+        <v>0.1024348809851127</v>
       </c>
       <c r="T7">
-        <v>0.04645165711979227</v>
+        <v>0.09721393228675797</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.034265</v>
       </c>
       <c r="I8">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J8">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>5.167675768325</v>
+        <v>7.09310727621</v>
       </c>
       <c r="R8">
-        <v>31.00605460995</v>
+        <v>42.55864365726</v>
       </c>
       <c r="S8">
-        <v>0.01126072684294505</v>
+        <v>0.01378644793966718</v>
       </c>
       <c r="T8">
-        <v>0.009530912738752674</v>
+        <v>0.01308377384336983</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.034265</v>
       </c>
       <c r="I9">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J9">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>20.083872489215</v>
@@ -1013,10 +1013,10 @@
         <v>180.754852402935</v>
       </c>
       <c r="S9">
-        <v>0.04376416249560756</v>
+        <v>0.03903582051101055</v>
       </c>
       <c r="T9">
-        <v>0.05556201029219792</v>
+        <v>0.05556933695954996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.034265</v>
       </c>
       <c r="I10">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J10">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>27.642082530335</v>
+        <v>20.525254041595</v>
       </c>
       <c r="R10">
-        <v>248.778742773015</v>
+        <v>184.727286374355</v>
       </c>
       <c r="S10">
-        <v>0.06023403067432338</v>
+        <v>0.03989370740831231</v>
       </c>
       <c r="T10">
-        <v>0.07647178973442527</v>
+        <v>0.05679057953739965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.034265</v>
       </c>
       <c r="I11">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J11">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>8.863153913289999</v>
+        <v>10.95294702267</v>
       </c>
       <c r="R11">
-        <v>53.17892347974</v>
+        <v>65.71768213602</v>
       </c>
       <c r="S11">
-        <v>0.01931343212286868</v>
+        <v>0.02128858736148375</v>
       </c>
       <c r="T11">
-        <v>0.01634660344897796</v>
+        <v>0.02020354073082574</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.034265</v>
       </c>
       <c r="I12">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J12">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>4.042601267059999</v>
+        <v>10.84788305133833</v>
       </c>
       <c r="R12">
-        <v>36.38341140353999</v>
+        <v>97.630947462045</v>
       </c>
       <c r="S12">
-        <v>0.008809110835152388</v>
+        <v>0.02108438081071625</v>
       </c>
       <c r="T12">
-        <v>0.01118385178596697</v>
+        <v>0.03001461341189646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.034265</v>
       </c>
       <c r="I13">
-        <v>0.2029893813118625</v>
+        <v>0.1852446555206853</v>
       </c>
       <c r="J13">
-        <v>0.2447720593995249</v>
+        <v>0.2470608722406263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>27.35475245133834</v>
+        <v>25.80504011377833</v>
       </c>
       <c r="R13">
-        <v>246.192772062045</v>
+        <v>232.245361024005</v>
       </c>
       <c r="S13">
-        <v>0.05960791834096544</v>
+        <v>0.05015571148949525</v>
       </c>
       <c r="T13">
-        <v>0.07567689139920412</v>
+        <v>0.0713990277575846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H14">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I14">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J14">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>0.7113276852966667</v>
+        <v>1.339177062666</v>
       </c>
       <c r="R14">
-        <v>4.26796611178</v>
+        <v>8.035062375996</v>
       </c>
       <c r="S14">
-        <v>0.001550032765028996</v>
+        <v>0.002602878278517471</v>
       </c>
       <c r="T14">
-        <v>0.001311924819040829</v>
+        <v>0.002470213566756085</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H15">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I15">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J15">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>2.764533838812667</v>
+        <v>3.791830620872334</v>
       </c>
       <c r="R15">
-        <v>24.880804549314</v>
+        <v>34.126475587851</v>
       </c>
       <c r="S15">
-        <v>0.006024112541611352</v>
+        <v>0.007369954156202251</v>
       </c>
       <c r="T15">
-        <v>0.007648079706128554</v>
+        <v>0.01049147835298919</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H16">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I16">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J16">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>3.804917232540666</v>
+        <v>3.875163358953666</v>
       </c>
       <c r="R16">
-        <v>34.244255092866</v>
+        <v>34.876470230583</v>
       </c>
       <c r="S16">
-        <v>0.008291180704152922</v>
+        <v>0.00753192300997688</v>
       </c>
       <c r="T16">
-        <v>0.01052629917606338</v>
+        <v>0.01072204867774554</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H17">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I17">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J17">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>1.220008189409333</v>
+        <v>2.067913940982</v>
       </c>
       <c r="R17">
-        <v>7.320049136455999</v>
+        <v>12.407483645892</v>
       </c>
       <c r="S17">
-        <v>0.002658483152387756</v>
+        <v>0.0040192805185224</v>
       </c>
       <c r="T17">
-        <v>0.002250100841290381</v>
+        <v>0.003814423958045193</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H18">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I18">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J18">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>0.5564618081306666</v>
+        <v>2.048077886761889</v>
       </c>
       <c r="R18">
-        <v>5.008156273176</v>
+        <v>18.432700980857</v>
       </c>
       <c r="S18">
-        <v>0.001212569189866528</v>
+        <v>0.003980726367543861</v>
       </c>
       <c r="T18">
-        <v>0.001539450956341918</v>
+        <v>0.005666752279471518</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.04745533333333333</v>
+        <v>0.06508966666666667</v>
       </c>
       <c r="H19">
-        <v>0.142366</v>
+        <v>0.195269</v>
       </c>
       <c r="I19">
-        <v>0.02794137504396322</v>
+        <v>0.03497414940935708</v>
       </c>
       <c r="J19">
-        <v>0.03369273736273853</v>
+        <v>0.04664503725984621</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>3.765366407533111</v>
+        <v>4.871985785052555</v>
       </c>
       <c r="R19">
-        <v>33.888297667798</v>
+        <v>43.847872065473</v>
       </c>
       <c r="S19">
-        <v>0.008204996690915661</v>
+        <v>0.009469387078594219</v>
       </c>
       <c r="T19">
-        <v>0.01041688186387347</v>
+        <v>0.01348012042483869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H20">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I20">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J20">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>8.278998661045001</v>
+        <v>14.255056300752</v>
       </c>
       <c r="R20">
-        <v>33.11599464418001</v>
+        <v>57.020225203008</v>
       </c>
       <c r="S20">
-        <v>0.0180405169818449</v>
+        <v>0.02770669946392669</v>
       </c>
       <c r="T20">
-        <v>0.01017948459361207</v>
+        <v>0.01752968767196385</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H21">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I21">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J21">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>32.175848660239</v>
+        <v>40.362667858008</v>
       </c>
       <c r="R21">
-        <v>193.055091961434</v>
+        <v>242.176007148048</v>
       </c>
       <c r="S21">
-        <v>0.0701134240897491</v>
+        <v>0.07845050095278308</v>
       </c>
       <c r="T21">
-        <v>0.05934296570147425</v>
+        <v>0.07445199930084832</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H22">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I22">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J22">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>44.284659974191</v>
+        <v>41.249714766264</v>
       </c>
       <c r="R22">
-        <v>265.707959845146</v>
+        <v>247.498288597584</v>
       </c>
       <c r="S22">
-        <v>0.0964993706375087</v>
+        <v>0.08017460091976517</v>
       </c>
       <c r="T22">
-        <v>0.08167564081059876</v>
+        <v>0.07608822453813012</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H23">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I23">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J23">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>14.199427880234</v>
+        <v>22.012197248304</v>
       </c>
       <c r="R23">
-        <v>56.797711520936</v>
+        <v>88.04878899321601</v>
       </c>
       <c r="S23">
-        <v>0.03094154622963901</v>
+        <v>0.04278378989406444</v>
       </c>
       <c r="T23">
-        <v>0.01745897822463267</v>
+        <v>0.02706877718301789</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H24">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I24">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J24">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>6.476546125875999</v>
+        <v>21.801049613256</v>
       </c>
       <c r="R24">
-        <v>38.859276755256</v>
+        <v>130.806297679536</v>
       </c>
       <c r="S24">
-        <v>0.01411284687329806</v>
+        <v>0.0423733948774916</v>
       </c>
       <c r="T24">
-        <v>0.01194490497112565</v>
+        <v>0.04021368796220105</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.552323</v>
+        <v>0.692856</v>
       </c>
       <c r="H25">
-        <v>1.104646</v>
+        <v>1.385712</v>
       </c>
       <c r="I25">
-        <v>0.3252039971989147</v>
+        <v>0.3722871924857941</v>
       </c>
       <c r="J25">
-        <v>0.2614286245086584</v>
+        <v>0.3310130531288429</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>43.82433594343967</v>
+        <v>51.860529573384</v>
       </c>
       <c r="R25">
-        <v>262.946015660638</v>
+        <v>311.163177440304</v>
       </c>
       <c r="S25">
-        <v>0.09549629238687489</v>
+        <v>0.1007982063777631</v>
       </c>
       <c r="T25">
-        <v>0.08082665020721502</v>
+        <v>0.09566067647268163</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H26">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I26">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J26">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>5.984139210431668</v>
+        <v>0.2524951831380001</v>
       </c>
       <c r="R26">
-        <v>35.90483526259001</v>
+        <v>1.514971098828</v>
       </c>
       <c r="S26">
-        <v>0.01303985777355951</v>
+        <v>0.0004907597702665437</v>
       </c>
       <c r="T26">
-        <v>0.01103674285851318</v>
+        <v>0.0004657464978427647</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H27">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I27">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J27">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>23.25701035592967</v>
+        <v>0.7149308285936667</v>
       </c>
       <c r="R27">
-        <v>209.313093203367</v>
+        <v>6.434377457343</v>
       </c>
       <c r="S27">
-        <v>0.05067865178518251</v>
+        <v>0.001389568247744897</v>
       </c>
       <c r="T27">
-        <v>0.06434049257461827</v>
+        <v>0.001978116129657052</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H28">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I28">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J28">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>32.00937468671367</v>
+        <v>0.7306428024243333</v>
       </c>
       <c r="R28">
-        <v>288.084372180423</v>
+        <v>6.575785221819</v>
       </c>
       <c r="S28">
-        <v>0.06975066566093691</v>
+        <v>0.001420106670584265</v>
       </c>
       <c r="T28">
-        <v>0.08855389849467817</v>
+        <v>0.002021589019089347</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H29">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I29">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J29">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>10.26348192851133</v>
+        <v>0.3898949017260001</v>
       </c>
       <c r="R29">
-        <v>61.580891571068</v>
+        <v>2.339369410356</v>
       </c>
       <c r="S29">
-        <v>0.02236484478435653</v>
+        <v>0.0007578153769950131</v>
       </c>
       <c r="T29">
-        <v>0.01892927401831038</v>
+        <v>0.0007191906900908485</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H30">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I30">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J30">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>4.681309323358667</v>
+        <v>0.3861549122334445</v>
       </c>
       <c r="R30">
-        <v>42.13178391022799</v>
+        <v>3.475394210101001</v>
       </c>
       <c r="S30">
-        <v>0.01020090035075098</v>
+        <v>0.0007505461833361279</v>
       </c>
       <c r="T30">
-        <v>0.01295083689388544</v>
+        <v>0.001068437994117361</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.3992243333333333</v>
+        <v>0.01227233333333333</v>
       </c>
       <c r="H31">
-        <v>1.197673</v>
+        <v>0.036817</v>
       </c>
       <c r="I31">
-        <v>0.235060551487213</v>
+        <v>0.006594202145779922</v>
       </c>
       <c r="J31">
-        <v>0.2834446555739653</v>
+        <v>0.008794690077768404</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>31.67664808598545</v>
+        <v>0.9185887193987778</v>
       </c>
       <c r="R31">
-        <v>285.089832773869</v>
+        <v>8.267298474588999</v>
       </c>
       <c r="S31">
-        <v>0.06902563113242652</v>
+        <v>0.001785405896853077</v>
       </c>
       <c r="T31">
-        <v>0.08763341073395987</v>
+        <v>0.00254160974697103</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H32">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I32">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J32">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>0.5577211568483333</v>
+        <v>0.8641292221140001</v>
       </c>
       <c r="R32">
-        <v>3.34632694109</v>
+        <v>5.184775332684</v>
       </c>
       <c r="S32">
-        <v>0.00121531339878083</v>
+        <v>0.001679556232538087</v>
       </c>
       <c r="T32">
-        <v>0.001028623295420216</v>
+        <v>0.00159395182863042</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H33">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I33">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J33">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>2.167550965046333</v>
+        <v>2.446750124497667</v>
       </c>
       <c r="R33">
-        <v>19.507958685417</v>
+        <v>22.020751120479</v>
       </c>
       <c r="S33">
-        <v>0.004723245116335951</v>
+        <v>0.004755601727031119</v>
       </c>
       <c r="T33">
-        <v>0.005996527268007723</v>
+        <v>0.006769824006652313</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H34">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I34">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J34">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>2.983270417430333</v>
+        <v>2.500522143256333</v>
       </c>
       <c r="R34">
-        <v>26.849433756873</v>
+        <v>22.504699289307</v>
       </c>
       <c r="S34">
-        <v>0.006500754841322097</v>
+        <v>0.004860115180495095</v>
       </c>
       <c r="T34">
-        <v>0.008253214200930855</v>
+        <v>0.006918603851326201</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H35">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I35">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J35">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>0.9565554565446667</v>
+        <v>1.334360418078</v>
       </c>
       <c r="R35">
-        <v>5.739332739268</v>
+        <v>8.006162508468</v>
       </c>
       <c r="S35">
-        <v>0.002084401225847313</v>
+        <v>0.002593516454810241</v>
       </c>
       <c r="T35">
-        <v>0.001764206385003135</v>
+        <v>0.002461328900837575</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H36">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I36">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J36">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>0.4362975458253333</v>
+        <v>1.321560830494778</v>
       </c>
       <c r="R36">
-        <v>3.926677912428</v>
+        <v>11.894047474453</v>
       </c>
       <c r="S36">
-        <v>0.0009507228599558286</v>
+        <v>0.002568638662751865</v>
       </c>
       <c r="T36">
-        <v>0.001207016661982172</v>
+        <v>0.00365657863749848</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.03720766666666667</v>
+        <v>0.04200033333333333</v>
       </c>
       <c r="H37">
-        <v>0.111623</v>
+        <v>0.126001</v>
       </c>
       <c r="I37">
-        <v>0.0219076191403306</v>
+        <v>0.02256772861912746</v>
       </c>
       <c r="J37">
-        <v>0.02641701264797046</v>
+        <v>0.03009858881736416</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>2.952260332579889</v>
+        <v>3.143740588124111</v>
       </c>
       <c r="R37">
-        <v>26.570342993219</v>
+        <v>28.293665293117</v>
       </c>
       <c r="S37">
-        <v>0.00643318169808858</v>
+        <v>0.006110300361501057</v>
       </c>
       <c r="T37">
-        <v>0.00816742483662636</v>
+        <v>0.008698301592419175</v>
       </c>
     </row>
   </sheetData>
